--- a/data/scheduling_DNN/predict/0.9/result21.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result21.xlsx
@@ -570,10 +570,10 @@
         <v>1.320313215255737</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.5233127474784851</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1190936714410782</v>
+        <v>0.6352097392082214</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9480628967285156</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.4000135660171509</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02112380973994732</v>
+        <v>0.3003580570220947</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9402868747711182</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.5196279883384705</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3230085372924805</v>
+        <v>0.1769538968801498</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8885459899902344</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.8671299815177917</v>
       </c>
       <c r="W5" t="n">
-        <v>0.007601779419928789</v>
+        <v>0.0004586454306263477</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8651819229125977</v>
       </c>
       <c r="V6" t="n">
-        <v>0.503772497177124</v>
+        <v>0.5154131054878235</v>
       </c>
       <c r="W6" t="n">
-        <v>0.130616769194603</v>
+        <v>0.1223382279276848</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8659579753875732</v>
       </c>
       <c r="V7" t="n">
-        <v>0.800457239151001</v>
+        <v>0.3990372717380524</v>
       </c>
       <c r="W7" t="n">
-        <v>0.004290346521884203</v>
+        <v>0.2180149406194687</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9259200096130371</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.8742637038230896</v>
       </c>
       <c r="W8" t="n">
-        <v>0.07448852062225342</v>
+        <v>0.002668373985216022</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8887121677398682</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.3998182117938995</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2604715824127197</v>
+        <v>0.2390172928571701</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8594357967376709</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.5058065056800842</v>
       </c>
       <c r="W10" t="n">
-        <v>0.111309751868248</v>
+        <v>0.1250536739826202</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8920040130615234</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.5276665091514587</v>
       </c>
       <c r="W11" t="n">
-        <v>0.002847548807039857</v>
+        <v>0.1327418237924576</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9354069232940674</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.5147754549980164</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3418245911598206</v>
+        <v>0.1769308298826218</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8890590667724609</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.3990239202976227</v>
       </c>
       <c r="W13" t="n">
-        <v>0.03610330447554588</v>
+        <v>0.2401344478130341</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9066929817199707</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.4019574820995331</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2391812652349472</v>
+        <v>0.2547578811645508</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9136340618133545</v>
       </c>
       <c r="V15" t="n">
-        <v>0.417653352022171</v>
+        <v>0.3990455865859985</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2459968626499176</v>
+        <v>0.2648012936115265</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.9639661312103271</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.516596257686615</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3503084182739258</v>
+        <v>0.2001398056745529</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8712770938873291</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.3998199105262756</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2057854980230331</v>
+        <v>0.2222718745470047</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8624269962310791</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.8567880392074585</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2618095278739929</v>
+        <v>3.179783743689768e-05</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8537077903747559</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.8750746846199036</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2567208409309387</v>
+        <v>0.0004565441631712019</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8648440837860107</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.8707802891731262</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1156470403075218</v>
+        <v>3.523853592923842e-05</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8697218894958496</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.5236092805862427</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0861019492149353</v>
+        <v>0.1197939366102219</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5253901481628418</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.8873409628868103</v>
       </c>
       <c r="W22" t="n">
-        <v>1.015891712086159e-06</v>
+        <v>0.1310083866119385</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.537269115447998</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.8667099475860596</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01341935154050589</v>
+        <v>0.1085312590003014</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5320188999176025</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.8814746141433716</v>
       </c>
       <c r="W24" t="n">
-        <v>0.03286134079098701</v>
+        <v>0.1221192926168442</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5447978973388672</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.5091193914413452</v>
       </c>
       <c r="W25" t="n">
-        <v>0.001685157767497003</v>
+        <v>0.001272955792956054</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5264961719512939</v>
       </c>
       <c r="V26" t="n">
-        <v>0.524641752243042</v>
+        <v>0.8735419511795044</v>
       </c>
       <c r="W26" t="n">
-        <v>3.438872454353259e-06</v>
+        <v>0.120440773665905</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5144679546356201</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.4004385471343994</v>
       </c>
       <c r="W27" t="n">
-        <v>0.00937328115105629</v>
+        <v>0.01300270576030016</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5146501064300537</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.4001523852348328</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0001031716892612167</v>
+        <v>0.01310972776263952</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5199549198150635</v>
       </c>
       <c r="V29" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.8666951060295105</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0986899808049202</v>
+        <v>0.1202287599444389</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5482559204101562</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.5157762169837952</v>
       </c>
       <c r="W30" t="n">
-        <v>0.002004150301218033</v>
+        <v>0.001054931082762778</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.510612964630127</v>
       </c>
       <c r="V31" t="n">
-        <v>0.490370512008667</v>
+        <v>0.4001688063144684</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0004097568744327873</v>
+        <v>0.01219791173934937</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5222899913787842</v>
       </c>
       <c r="V32" t="n">
-        <v>0.653493344783783</v>
+        <v>0.3993607461452484</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01721432060003281</v>
+        <v>0.01511159911751747</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5149788856506348</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.4023816883563995</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0005816351040266454</v>
+        <v>0.01267812866717577</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5216069221496582</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.4004750549793243</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01740212552249432</v>
+        <v>0.01467292942106724</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5687751770019531</v>
       </c>
       <c r="V35" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.5284278392791748</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01945129409432411</v>
+        <v>0.001627907622605562</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5152690410614014</v>
       </c>
       <c r="V36" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.5161786675453186</v>
       </c>
       <c r="W36" t="n">
-        <v>0.08241786062717438</v>
+        <v>8.2742036511263e-07</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5148558616638184</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.3999338746070862</v>
       </c>
       <c r="W37" t="n">
-        <v>0.02692838571965694</v>
+        <v>0.01320706307888031</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5134739875793457</v>
       </c>
       <c r="V38" t="n">
-        <v>0.655465304851532</v>
+        <v>0.8676932454109192</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02016153372824192</v>
+        <v>0.1254712790250778</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5125010013580322</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.5215200781822205</v>
       </c>
       <c r="W39" t="n">
-        <v>0.02616345323622227</v>
+        <v>8.134374365909025e-05</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.513469934463501</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.8838667869567871</v>
       </c>
       <c r="W40" t="n">
-        <v>0.009212627075612545</v>
+        <v>0.1371938288211823</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5368750095367432</v>
       </c>
       <c r="V41" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.4004212915897369</v>
       </c>
       <c r="W41" t="n">
-        <v>0.1929003894329071</v>
+        <v>0.01861961744725704</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4035530090332031</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.5158228278160095</v>
       </c>
       <c r="W42" t="n">
-        <v>0.01504769362509251</v>
+        <v>0.01260451227426529</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4097630977630615</v>
       </c>
       <c r="V43" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.8748200535774231</v>
       </c>
       <c r="W43" t="n">
-        <v>0.3203361332416534</v>
+        <v>0.2162779718637466</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.387645959854126</v>
       </c>
       <c r="V44" t="n">
-        <v>0.802345335483551</v>
+        <v>0.8790526390075684</v>
       </c>
       <c r="W44" t="n">
-        <v>0.1719755679368973</v>
+        <v>0.2414805293083191</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3861701488494873</v>
       </c>
       <c r="V45" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.8899744153022766</v>
       </c>
       <c r="W45" t="n">
-        <v>0.2043194323778152</v>
+        <v>0.2538187503814697</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3872168064117432</v>
       </c>
       <c r="V46" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.5157696604728699</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1995912492275238</v>
+        <v>0.01652583666145802</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4248640537261963</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.5165134072303772</v>
       </c>
       <c r="W47" t="n">
-        <v>0.02284786850214005</v>
+        <v>0.008399603888392448</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3907711505889893</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.8873435854911804</v>
       </c>
       <c r="W48" t="n">
-        <v>0.06894220411777496</v>
+        <v>0.2465841770172119</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3862900733947754</v>
       </c>
       <c r="V49" t="n">
-        <v>0.405481219291687</v>
+        <v>0.3998388350009918</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0003683000686578453</v>
+        <v>0.0001835689472500235</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3842730522155762</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.5153653025627136</v>
       </c>
       <c r="W50" t="n">
-        <v>2.88115243165521e-05</v>
+        <v>0.01718517765402794</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3844549655914307</v>
       </c>
       <c r="V51" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.517894983291626</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1737272292375565</v>
+        <v>0.01780623756349087</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3946700096130371</v>
       </c>
       <c r="V52" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.4000144898891449</v>
       </c>
       <c r="W52" t="n">
-        <v>0.1643441170454025</v>
+        <v>2.856346873159055e-05</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.439457893371582</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.5030282139778137</v>
       </c>
       <c r="W53" t="n">
-        <v>0.002523441798985004</v>
+        <v>0.004041185602545738</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3857290744781494</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.4021222293376923</v>
       </c>
       <c r="W54" t="n">
-        <v>0.005745427682995796</v>
+        <v>0.0002687355154193938</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.388840913772583</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.5454475879669189</v>
       </c>
       <c r="W55" t="n">
-        <v>0.007972325198352337</v>
+        <v>0.02452564984560013</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3869469165802002</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.5209120512008667</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01386482175439596</v>
+        <v>0.01794665679335594</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3809330463409424</v>
       </c>
       <c r="V57" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.5267146229743958</v>
       </c>
       <c r="W57" t="n">
-        <v>0.07436929643154144</v>
+        <v>0.02125226892530918</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3840928077697754</v>
       </c>
       <c r="V58" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.8760569095611572</v>
       </c>
       <c r="W58" t="n">
-        <v>0.001373166916891932</v>
+        <v>0.242028683423996</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3877999782562256</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.5235108137130737</v>
       </c>
       <c r="W59" t="n">
-        <v>9.96401240627165e-07</v>
+        <v>0.01841743104159832</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3865070343017578</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.3992235064506531</v>
       </c>
       <c r="W60" t="n">
-        <v>0.0191289521753788</v>
+        <v>0.0001617086672922596</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3878018856048584</v>
       </c>
       <c r="V61" t="n">
-        <v>0.654336154460907</v>
+        <v>0.3990411758422852</v>
       </c>
       <c r="W61" t="n">
-        <v>0.07104051858186722</v>
+        <v>0.0001263216399820521</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8705651760101318</v>
       </c>
       <c r="V62" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.5145189166069031</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2423815429210663</v>
+        <v>0.1267689317464828</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.9104259014129639</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.8716187477111816</v>
       </c>
       <c r="W63" t="n">
-        <v>0.2018668204545975</v>
+        <v>0.00150599516928196</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.9168860912322998</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.5268079042434692</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2968978881835938</v>
+        <v>0.1521609872579575</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8793699741363525</v>
       </c>
       <c r="V65" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.8873963356018066</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2794432044029236</v>
+        <v>6.442247831728309e-05</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8733141422271729</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.3999031782150269</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2076090425252914</v>
+        <v>0.2241179347038269</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8648488521575928</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.5276561975479126</v>
       </c>
       <c r="W67" t="n">
-        <v>0.129402682185173</v>
+        <v>0.11369888484478</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9365630149841309</v>
       </c>
       <c r="V68" t="n">
-        <v>0.371780127286911</v>
+        <v>0.8675199151039124</v>
       </c>
       <c r="W68" t="n">
-        <v>0.3189796805381775</v>
+        <v>0.004766949452459812</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8779940605163574</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.8868521451950073</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2562952935695648</v>
+        <v>7.846566586522385e-05</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8750770092010498</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.4000408351421356</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1370129883289337</v>
+        <v>0.2256593704223633</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8737468719482422</v>
       </c>
       <c r="V71" t="n">
-        <v>0.699232816696167</v>
+        <v>0.3992300927639008</v>
       </c>
       <c r="W71" t="n">
-        <v>0.03045515529811382</v>
+        <v>0.2251661717891693</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.9462640285491943</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.399046391248703</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1773196011781693</v>
+        <v>0.2994471192359924</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8799328804016113</v>
       </c>
       <c r="V73" t="n">
-        <v>0.35074183344841</v>
+        <v>0.518412172794342</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2800431251525879</v>
+        <v>0.1306972205638885</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8752808570861816</v>
       </c>
       <c r="V74" t="n">
-        <v>0.417663037776947</v>
+        <v>0.8734310865402222</v>
       </c>
       <c r="W74" t="n">
-        <v>0.2094140648841858</v>
+        <v>3.421651172175189e-06</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8798909187316895</v>
       </c>
       <c r="V75" t="n">
-        <v>0.653571605682373</v>
+        <v>0.8666542172431946</v>
       </c>
       <c r="W75" t="n">
-        <v>0.05122043192386627</v>
+        <v>0.0001752102689351887</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.9376809597015381</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.8785463571548462</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1871300339698792</v>
+        <v>0.003496901132166386</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8895959854125977</v>
       </c>
       <c r="V77" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.8725119233131409</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2903648018836975</v>
+        <v>0.0002918651734944433</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8600931167602539</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.5273387432098389</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1122187152504921</v>
+        <v>0.1107254698872566</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.858795166015625</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.8738762736320496</v>
       </c>
       <c r="W79" t="n">
-        <v>0.02754136174917221</v>
+        <v>0.000227439813897945</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9251949787139893</v>
       </c>
       <c r="V80" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.8750403523445129</v>
       </c>
       <c r="W80" t="n">
-        <v>0.01453438028693199</v>
+        <v>0.002515486441552639</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8915979862213135</v>
       </c>
       <c r="V81" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.527712345123291</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2700647115707397</v>
+        <v>0.1324127614498138</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5489029884338379</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.5177136063575745</v>
       </c>
       <c r="W82" t="n">
-        <v>0.0005954529042355716</v>
+        <v>0.0009727775468491018</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5433211326599121</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.4000344276428223</v>
       </c>
       <c r="W83" t="n">
-        <v>0.001460143364965916</v>
+        <v>0.02053108066320419</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5219459533691406</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.5156459212303162</v>
       </c>
       <c r="W84" t="n">
-        <v>0.002956024138256907</v>
+        <v>3.969040335505269e-05</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.543834924697876</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.8742306232452393</v>
       </c>
       <c r="W85" t="n">
-        <v>0.001662051538005471</v>
+        <v>0.1091613173484802</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5441179275512695</v>
       </c>
       <c r="V86" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.5207855701446533</v>
       </c>
       <c r="W86" t="n">
-        <v>0.1861148029565811</v>
+        <v>0.0005443989066407084</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5501248836517334</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.8876509070396423</v>
       </c>
       <c r="W87" t="n">
-        <v>0.006547994911670685</v>
+        <v>0.1139238178730011</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.524785041809082</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.516022264957428</v>
       </c>
       <c r="W88" t="n">
-        <v>0.002643664367496967</v>
+        <v>7.678625843254849e-05</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5205450057983398</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.875234067440033</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02012867666780949</v>
+        <v>0.1258043348789215</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5185980796813965</v>
       </c>
       <c r="V90" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.4010031819343567</v>
       </c>
       <c r="W90" t="n">
-        <v>0.005223905667662621</v>
+        <v>0.01382855977863073</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5435779094696045</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.5281269550323486</v>
       </c>
       <c r="W91" t="n">
-        <v>0.02422551810741425</v>
+        <v>0.0002387319982517511</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5199708938598633</v>
       </c>
       <c r="V92" t="n">
-        <v>0.490329772233963</v>
+        <v>0.4004189968109131</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0008785960962995887</v>
+        <v>0.01429265644401312</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5197699069976807</v>
       </c>
       <c r="V93" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.4023724496364594</v>
       </c>
       <c r="W93" t="n">
-        <v>0.02773599699139595</v>
+        <v>0.01378216315060854</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5392677783966064</v>
       </c>
       <c r="V94" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.400671511888504</v>
       </c>
       <c r="W94" t="n">
-        <v>0.02699972689151764</v>
+        <v>0.01920892484486103</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5890130996704102</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.8862056732177734</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01635934971272945</v>
+        <v>0.08832342922687531</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5206778049468994</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.8837957978248596</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0009156655869446695</v>
+        <v>0.1318546831607819</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5191349983215332</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.5161653161048889</v>
       </c>
       <c r="W97" t="n">
-        <v>0.03012388944625854</v>
+        <v>8.819012691674288e-06</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5156140327453613</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.4004402160644531</v>
       </c>
       <c r="W98" t="n">
-        <v>0.03371633961796761</v>
+        <v>0.01326500810682774</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.517219066619873</v>
       </c>
       <c r="V99" t="n">
-        <v>0.505433976650238</v>
+        <v>0.5092442035675049</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0001388883392792195</v>
+        <v>6.359843973768875e-05</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.572037935256958</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.8738546371459961</v>
       </c>
       <c r="W100" t="n">
-        <v>0.006603540387004614</v>
+        <v>0.09109332412481308</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5207071304321289</v>
       </c>
       <c r="V101" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.8670467734336853</v>
       </c>
       <c r="W101" t="n">
-        <v>0.07828273624181747</v>
+        <v>0.1199511513113976</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4162211418151855</v>
       </c>
       <c r="V102" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.5160226821899414</v>
       </c>
       <c r="W102" t="n">
-        <v>0.1496903300285339</v>
+        <v>0.009960347786545753</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4049570560455322</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.5199140310287476</v>
       </c>
       <c r="W103" t="n">
-        <v>0.06146670877933502</v>
+        <v>0.01321510598063469</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4108641147613525</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.5321341753005981</v>
       </c>
       <c r="W104" t="n">
-        <v>0.01300251577049494</v>
+        <v>0.01470642723143101</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4357230663299561</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.8670600652694702</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0007707432960160077</v>
+        <v>0.186051607131958</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.5688118934631348</v>
       </c>
       <c r="V106" t="n">
-        <v>0.417652815580368</v>
+        <v>0.4020207524299622</v>
       </c>
       <c r="W106" t="n">
-        <v>0.022849066182971</v>
+        <v>0.02781928516924381</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.4149539470672607</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.4009979963302612</v>
       </c>
       <c r="W107" t="n">
-        <v>7.141265541577013e-06</v>
+        <v>0.0001947685668710619</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.4189770221710205</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.4009963274002075</v>
       </c>
       <c r="W108" t="n">
-        <v>1.761029352564947e-06</v>
+        <v>0.0003233053721487522</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3963029384613037</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.3992118239402771</v>
       </c>
       <c r="W109" t="n">
-        <v>0.03215640410780907</v>
+        <v>8.461614925181493e-06</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.4038569927215576</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.8728811144828796</v>
       </c>
       <c r="W110" t="n">
-        <v>0.01012080442160368</v>
+        <v>0.2199836224317551</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3892538547515869</v>
       </c>
       <c r="V111" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.3990491926670074</v>
       </c>
       <c r="W111" t="n">
-        <v>0.2044839262962341</v>
+        <v>9.594864241080359e-05</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4612789154052734</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.3999147713184357</v>
       </c>
       <c r="W112" t="n">
-        <v>0.05661780387163162</v>
+        <v>0.003765558125451207</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3899929523468018</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.4004040956497192</v>
       </c>
       <c r="W113" t="n">
-        <v>0.005107827950268984</v>
+        <v>0.0001083919050870463</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3886339664459229</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.3990318179130554</v>
       </c>
       <c r="W114" t="n">
-        <v>0.000841050932649523</v>
+        <v>0.0001081153168343008</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3878910541534424</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.5263684391975403</v>
       </c>
       <c r="W115" t="n">
-        <v>0.0002483542484696954</v>
+        <v>0.01917598582804203</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3904519081115723</v>
       </c>
       <c r="V116" t="n">
-        <v>0.417630136013031</v>
+        <v>0.875511109828949</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0007386560901068151</v>
+        <v>0.2352824360132217</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3936910629272461</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.8689525723457336</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0005729665281251073</v>
+        <v>0.2258735001087189</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4031960964202881</v>
       </c>
       <c r="V118" t="n">
-        <v>0.490833193063736</v>
+        <v>0.873893678188324</v>
       </c>
       <c r="W118" t="n">
-        <v>0.007680260576307774</v>
+        <v>0.2215562164783478</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.4016890525817871</v>
       </c>
       <c r="V119" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.4004668891429901</v>
       </c>
       <c r="W119" t="n">
-        <v>0.1609490066766739</v>
+        <v>1.493683498665632e-06</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3911011219024658</v>
       </c>
       <c r="V120" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.5210533738136292</v>
       </c>
       <c r="W120" t="n">
-        <v>0.06907112896442413</v>
+        <v>0.01688758842647076</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3867089748382568</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.3990401029586792</v>
       </c>
       <c r="W121" t="n">
-        <v>0.005585621111094952</v>
+        <v>0.0001520567166153342</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8612039089202881</v>
       </c>
       <c r="V122" t="n">
-        <v>0.975210964679718</v>
+        <v>0.4010067284107208</v>
       </c>
       <c r="W122" t="n">
-        <v>0.01299760863184929</v>
+        <v>0.2117814421653748</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.939953088760376</v>
       </c>
       <c r="V123" t="n">
-        <v>0.590633749961853</v>
+        <v>0.8638935685157776</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1220239996910095</v>
+        <v>0.005785050801932812</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8658590316772461</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.8824397325515747</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1164660900831223</v>
+        <v>0.0002749196428339928</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.864469051361084</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.5214768052101135</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1399128884077072</v>
+        <v>0.1176436841487885</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8848268985748291</v>
       </c>
       <c r="V126" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.5159065127372742</v>
       </c>
       <c r="W126" t="n">
-        <v>0.05356797948479652</v>
+        <v>0.1361022442579269</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8893630504608154</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.5154711008071899</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1810892373323441</v>
+        <v>0.139795184135437</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.853477954864502</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.870650053024292</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1315421760082245</v>
+        <v>0.0002948809415102005</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8523430824279785</v>
       </c>
       <c r="V129" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.5207381844520569</v>
       </c>
       <c r="W129" t="n">
-        <v>0.002275038743391633</v>
+        <v>0.1099618077278137</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8554348945617676</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.8659510016441345</v>
       </c>
       <c r="W130" t="n">
-        <v>0.191642090678215</v>
+        <v>0.0001105885094148107</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.9184160232543945</v>
       </c>
       <c r="V131" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.5251132845878601</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2921898365020752</v>
+        <v>0.1546870470046997</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.876964807510376</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.3990100622177124</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1234100982546806</v>
+        <v>0.2284407317638397</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8961479663848877</v>
       </c>
       <c r="V133" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.5239086151123047</v>
       </c>
       <c r="W133" t="n">
-        <v>0.274847149848938</v>
+        <v>0.1385621279478073</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8589770793914795</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.5235264301300049</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1256335228681564</v>
+        <v>0.1125271394848824</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.9250719547271729</v>
       </c>
       <c r="V135" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.5275722742080688</v>
       </c>
       <c r="W135" t="n">
-        <v>0.002552469493821263</v>
+        <v>0.1580059975385666</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8631088733673096</v>
       </c>
       <c r="V136" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.8878433108329773</v>
       </c>
       <c r="W136" t="n">
-        <v>0.0008424620609730482</v>
+        <v>0.0006117923767305911</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8632228374481201</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.5237389802932739</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1552572697401047</v>
+        <v>0.115249291062355</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8622260093688965</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.4003948271274567</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1274558007717133</v>
+        <v>0.2132880389690399</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.913905143737793</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.8670505881309509</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1098178848624229</v>
+        <v>0.002195349428802729</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8606901168823242</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.4020059406757355</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1367594748735428</v>
+        <v>0.21039117872715</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8599128723144531</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.4003807902336121</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1260351687669754</v>
+        <v>0.2111697345972061</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5233139991760254</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.5230753421783447</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01119386125355959</v>
+        <v>5.695716254194849e-08</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5145010948181152</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.868439793586731</v>
       </c>
       <c r="W143" t="n">
-        <v>0.004637671634554863</v>
+        <v>0.1252726018428802</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5724599361419678</v>
       </c>
       <c r="V144" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.3998193442821503</v>
       </c>
       <c r="W144" t="n">
-        <v>0.1625186502933502</v>
+        <v>0.0298047736287117</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.6179180145263672</v>
       </c>
       <c r="V145" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.8723183274269104</v>
       </c>
       <c r="W145" t="n">
-        <v>0.05214710533618927</v>
+        <v>0.06471952050924301</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5191648006439209</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.4966261684894562</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0002419884403934702</v>
+        <v>0.0005079899565316737</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5354290008544922</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.3998428285121918</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0001130807941081002</v>
+        <v>0.01838361099362373</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5162591934204102</v>
       </c>
       <c r="V148" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.4003867208957672</v>
       </c>
       <c r="W148" t="n">
-        <v>0.1010774299502373</v>
+        <v>0.01342642959207296</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5723109245300293</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.8754004836082458</v>
       </c>
       <c r="W149" t="n">
-        <v>0.02395335212349892</v>
+        <v>0.09186328202486038</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5191628932952881</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.8739381432533264</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01976367458701134</v>
+        <v>0.1258654743432999</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5152499675750732</v>
       </c>
       <c r="V151" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.8845205307006836</v>
       </c>
       <c r="W151" t="n">
-        <v>0.02826726995408535</v>
+        <v>0.1363607496023178</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5122280120849609</v>
       </c>
       <c r="V152" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.8679607510566711</v>
       </c>
       <c r="W152" t="n">
-        <v>0.01986858993768692</v>
+        <v>0.126545786857605</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5145509243011475</v>
       </c>
       <c r="V153" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.524369478225708</v>
       </c>
       <c r="W153" t="n">
-        <v>0.08278319239616394</v>
+        <v>9.640400094212964e-05</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5131349563598633</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.8861373066902161</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0005189881776459515</v>
+        <v>0.1391307562589645</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5180058479309082</v>
       </c>
       <c r="V155" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.5180758237838745</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0328470803797245</v>
+        <v>4.896619998362439e-09</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5189788341522217</v>
       </c>
       <c r="V156" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.5226162672042847</v>
       </c>
       <c r="W156" t="n">
-        <v>0.02157361246645451</v>
+        <v>1.323091964877676e-05</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5200119018554688</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.3999439775943756</v>
       </c>
       <c r="W157" t="n">
-        <v>0.01791717298328876</v>
+        <v>0.01441630627959967</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5203220844268799</v>
       </c>
       <c r="V158" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.4004304707050323</v>
       </c>
       <c r="W158" t="n">
-        <v>0.02849514968693256</v>
+        <v>0.01437399908900261</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5156018733978271</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.4009949266910553</v>
       </c>
       <c r="W159" t="n">
-        <v>8.438970689894632e-05</v>
+        <v>0.01313475240021944</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5784480571746826</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.8761361837387085</v>
       </c>
       <c r="W160" t="n">
-        <v>7.904646190581843e-05</v>
+        <v>0.08861821889877319</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5193929672241211</v>
       </c>
       <c r="V161" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.5216796398162842</v>
       </c>
       <c r="W161" t="n">
-        <v>0.028127146884799</v>
+        <v>5.228871486906428e-06</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3880209922790527</v>
       </c>
       <c r="V162" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.4004196226596832</v>
       </c>
       <c r="W162" t="n">
-        <v>0.1950636953115463</v>
+        <v>0.0001537260395707563</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3855900764465332</v>
       </c>
       <c r="V163" t="n">
-        <v>0.652911365032196</v>
+        <v>0.8627254962921143</v>
       </c>
       <c r="W163" t="n">
-        <v>0.07146067172288895</v>
+        <v>0.227658212184906</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3915259838104248</v>
       </c>
       <c r="V164" t="n">
-        <v>0.97564297914505</v>
+        <v>0.5281040072441101</v>
       </c>
       <c r="W164" t="n">
-        <v>0.3411926627159119</v>
+        <v>0.01865355670452118</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3899750709533691</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.5146800875663757</v>
       </c>
       <c r="W165" t="n">
-        <v>0.04035482928156853</v>
+        <v>0.01555134076625109</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4230360984802246</v>
       </c>
       <c r="V166" t="n">
-        <v>0.802417516708374</v>
+        <v>0.4024571180343628</v>
       </c>
       <c r="W166" t="n">
-        <v>0.1439302563667297</v>
+        <v>0.0004234944353811443</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3927850723266602</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.4020250737667084</v>
       </c>
       <c r="W167" t="n">
-        <v>0.06814221292734146</v>
+        <v>8.537762914784253e-05</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3920869827270508</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.3990562856197357</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01765806972980499</v>
+        <v>4.857118256040849e-05</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3989369869232178</v>
       </c>
       <c r="V169" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.8733606934547424</v>
       </c>
       <c r="W169" t="n">
-        <v>0.08629202842712402</v>
+        <v>0.2250778526067734</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3898389339447021</v>
       </c>
       <c r="V170" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.5242978930473328</v>
       </c>
       <c r="W170" t="n">
-        <v>0.3430887162685394</v>
+        <v>0.01807921193540096</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.389613151550293</v>
       </c>
       <c r="V171" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.8711956143379211</v>
       </c>
       <c r="W171" t="n">
-        <v>0.1717026978731155</v>
+        <v>0.2319216728210449</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3911490440368652</v>
       </c>
       <c r="V172" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.4021176397800446</v>
       </c>
       <c r="W172" t="n">
-        <v>0.001544121885672212</v>
+        <v>0.0001203100910061039</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3930819034576416</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.5159560441970825</v>
       </c>
       <c r="W173" t="n">
-        <v>0.0006028088973835111</v>
+        <v>0.01509805489331484</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3998050689697266</v>
       </c>
       <c r="V174" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.3993371427059174</v>
       </c>
       <c r="W174" t="n">
-        <v>0.1617819964885712</v>
+        <v>2.189549945796898e-07</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.392941951751709</v>
       </c>
       <c r="V175" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.5159808397293091</v>
       </c>
       <c r="W175" t="n">
-        <v>0.06805684417486191</v>
+        <v>0.01513856835663319</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3921229839324951</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.4003391563892365</v>
       </c>
       <c r="W176" t="n">
-        <v>0.03388461470603943</v>
+        <v>6.750549073331058e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.408768892288208</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.8869181275367737</v>
       </c>
       <c r="W177" t="n">
-        <v>0.003363180439919233</v>
+        <v>0.2286266982555389</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3911168575286865</v>
       </c>
       <c r="V178" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.5316029191017151</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0004041045613121241</v>
+        <v>0.01973633281886578</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.4370520114898682</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.8880979418754578</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0468544103205204</v>
+        <v>0.2034424245357513</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3901550769805908</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.4004359245300293</v>
       </c>
       <c r="W180" t="n">
-        <v>0.005378090776503086</v>
+        <v>0.0001056958280969411</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.400831937789917</v>
       </c>
       <c r="V181" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.4000304937362671</v>
       </c>
       <c r="W181" t="n">
-        <v>0.3303236663341522</v>
+        <v>6.423125569199328e-07</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.880457878112793</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.3990172445774078</v>
       </c>
       <c r="W182" t="n">
-        <v>0.05114378407597542</v>
+        <v>0.2317850887775421</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9463739395141602</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.8803972005844116</v>
       </c>
       <c r="W183" t="n">
-        <v>0.195191353559494</v>
+        <v>0.004352930001914501</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8893389701843262</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.3992338180541992</v>
       </c>
       <c r="W184" t="n">
-        <v>0.22256900370121</v>
+        <v>0.2402030527591705</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8857569694519043</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.8710734844207764</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1568316668272018</v>
+        <v>0.000215604726690799</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8661730289459229</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.4004650413990021</v>
       </c>
       <c r="W186" t="n">
-        <v>0.04539545997977257</v>
+        <v>0.2168839275836945</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8864290714263916</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.5198726654052734</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1195954754948616</v>
+        <v>0.13436359167099</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8661701679229736</v>
       </c>
       <c r="V188" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.399908572435379</v>
       </c>
       <c r="W188" t="n">
-        <v>0.004316841717809439</v>
+        <v>0.2173998802900314</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8734450340270996</v>
       </c>
       <c r="V189" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.3990492522716522</v>
       </c>
       <c r="W189" t="n">
-        <v>0.2720617949962616</v>
+        <v>0.2250513583421707</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8672969341278076</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.515541136264801</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1424867659807205</v>
+        <v>0.1237321421504021</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8898499011993408</v>
       </c>
       <c r="V191" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.4004020392894745</v>
       </c>
       <c r="W191" t="n">
-        <v>0.03304138407111168</v>
+        <v>0.2395592033863068</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8634569644927979</v>
       </c>
       <c r="V192" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.399032860994339</v>
       </c>
       <c r="W192" t="n">
-        <v>0.04485062137246132</v>
+        <v>0.2156897485256195</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.861767053604126</v>
       </c>
       <c r="V193" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.4000262916088104</v>
       </c>
       <c r="W193" t="n">
-        <v>0.003621547250077128</v>
+        <v>0.2132045328617096</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8580460548400879</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.3990418612957001</v>
       </c>
       <c r="W194" t="n">
-        <v>0.04181594401597977</v>
+        <v>0.2106848508119583</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8613929748535156</v>
       </c>
       <c r="V195" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.3999323546886444</v>
       </c>
       <c r="W195" t="n">
-        <v>0.001007598475553095</v>
+        <v>0.2129459083080292</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8621129989624023</v>
       </c>
       <c r="V196" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.4010328948497772</v>
       </c>
       <c r="W196" t="n">
-        <v>0.01287463307380676</v>
+        <v>0.2125948667526245</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8737771511077881</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.8726995587348938</v>
       </c>
       <c r="W197" t="n">
-        <v>0.2080724984407425</v>
+        <v>1.161205318567227e-06</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.87965989112854</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.4020867645740509</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1729406714439392</v>
+        <v>0.2280760854482651</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8568170070648193</v>
       </c>
       <c r="V199" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.3999442756175995</v>
       </c>
       <c r="W199" t="n">
-        <v>0.2561033666133881</v>
+        <v>0.2087326943874359</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8587801456451416</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.8756716251373291</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1578228622674942</v>
+        <v>0.0002853220794349909</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8771359920501709</v>
       </c>
       <c r="V201" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.5230199694633484</v>
       </c>
       <c r="W201" t="n">
-        <v>0.02856695279479027</v>
+        <v>0.1253981590270996</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5175518989562988</v>
       </c>
       <c r="V202" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.3999113142490387</v>
       </c>
       <c r="W202" t="n">
-        <v>0.08246992528438568</v>
+        <v>0.0138393072411418</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5156941413879395</v>
       </c>
       <c r="V203" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.4009842574596405</v>
       </c>
       <c r="W203" t="n">
-        <v>0.02719646506011486</v>
+        <v>0.01315835770219564</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5765178203582764</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.8950722217559814</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0126988822594285</v>
+        <v>0.1014769077301025</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.51792311668396</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.8748340010643005</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01764584146440029</v>
+        <v>0.1273853778839111</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5236899852752686</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.4009821712970734</v>
       </c>
       <c r="W206" t="n">
-        <v>0.003473339602351189</v>
+        <v>0.01505720801651478</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5173408985137939</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.5214129686355591</v>
       </c>
       <c r="W207" t="n">
-        <v>0.002864029258489609</v>
+        <v>1.658175460761413e-05</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5160160064697266</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.5277053117752075</v>
       </c>
       <c r="W208" t="n">
-        <v>0.0001489577698521316</v>
+        <v>0.0001366398646496236</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5155730247497559</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.4004774689674377</v>
       </c>
       <c r="W209" t="n">
-        <v>0.002713438356295228</v>
+        <v>0.01324698701500893</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5194242000579834</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.8644798994064331</v>
       </c>
       <c r="W210" t="n">
-        <v>0.003217065939679742</v>
+        <v>0.1190634369850159</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5208828449249268</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.5322303771972656</v>
       </c>
       <c r="W211" t="n">
-        <v>0.0009236260084435344</v>
+        <v>0.0001287664927076548</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5191650390625</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.3990547657012939</v>
       </c>
       <c r="W212" t="n">
-        <v>0.00399797735735774</v>
+        <v>0.01442647818475962</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5191090106964111</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.8759542107582092</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01814145594835281</v>
+        <v>0.1273384988307953</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5203869342803955</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.8641631007194519</v>
       </c>
       <c r="W214" t="n">
-        <v>0.0008997926488518715</v>
+        <v>0.1181820556521416</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5787408351898193</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.4004336595535278</v>
       </c>
       <c r="W215" t="n">
-        <v>0.04015542939305305</v>
+        <v>0.03179344907402992</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5214829444885254</v>
       </c>
       <c r="V216" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.5663082599639893</v>
       </c>
       <c r="W216" t="n">
-        <v>0.02913758903741837</v>
+        <v>0.002009308896958828</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5210578441619873</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.8674608469009399</v>
       </c>
       <c r="W217" t="n">
-        <v>1.124620484915795e-05</v>
+        <v>0.119995042681694</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5345721244812012</v>
       </c>
       <c r="V218" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.8615159392356873</v>
       </c>
       <c r="W218" t="n">
-        <v>0.03378418460488319</v>
+        <v>0.1068922579288483</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5287280082702637</v>
       </c>
       <c r="V219" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.5664032101631165</v>
       </c>
       <c r="W219" t="n">
-        <v>0.03167086839675903</v>
+        <v>0.001419420819729567</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5318179130554199</v>
       </c>
       <c r="V220" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.8754124045372009</v>
       </c>
       <c r="W220" t="n">
-        <v>0.003957025706768036</v>
+        <v>0.1180571764707565</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.613286018371582</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.5085715651512146</v>
       </c>
       <c r="W221" t="n">
-        <v>0.001603981014341116</v>
+        <v>0.01096511632204056</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.4005370140075684</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.8639694452285767</v>
       </c>
       <c r="W222" t="n">
-        <v>0.008113255724310875</v>
+        <v>0.2147696167230606</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.4276919364929199</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.8761803507804871</v>
       </c>
       <c r="W223" t="n">
-        <v>0.005991705693304539</v>
+        <v>0.2011418640613556</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.5735759735107422</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.8737043142318726</v>
       </c>
       <c r="W224" t="n">
-        <v>0.02431616745889187</v>
+        <v>0.09007702022790909</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3975739479064941</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.4023390114307404</v>
       </c>
       <c r="W225" t="n">
-        <v>0.01613076403737068</v>
+        <v>2.270582990604453e-05</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4543590545654297</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.5109101533889771</v>
       </c>
       <c r="W226" t="n">
-        <v>0.001338780857622623</v>
+        <v>0.003198026679456234</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4026000499725342</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.8660065531730652</v>
       </c>
       <c r="W227" t="n">
-        <v>0.01530948281288147</v>
+        <v>0.2147455811500549</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4013841152191162</v>
       </c>
       <c r="V228" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.5226864218711853</v>
       </c>
       <c r="W228" t="n">
-        <v>0.002563671907410026</v>
+        <v>0.0147142494097352</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4113330841064453</v>
       </c>
       <c r="V229" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.5210446715354919</v>
       </c>
       <c r="W229" t="n">
-        <v>0.001087601413019001</v>
+        <v>0.01203663274645805</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4455850124359131</v>
       </c>
       <c r="V230" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.8866130113601685</v>
       </c>
       <c r="W230" t="n">
-        <v>0.2804840207099915</v>
+        <v>0.1945056915283203</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.4383938312530518</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.5211045145988464</v>
       </c>
       <c r="W231" t="n">
-        <v>0.0006484410259872675</v>
+        <v>0.006841056980192661</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.7085180282592773</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.3990475237369537</v>
       </c>
       <c r="W232" t="n">
-        <v>0.06100897490978241</v>
+        <v>0.09577199071645737</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4016189575195312</v>
       </c>
       <c r="V233" t="n">
-        <v>0.576347291469574</v>
+        <v>0.8870507478713989</v>
       </c>
       <c r="W233" t="n">
-        <v>0.03052999079227448</v>
+        <v>0.2356440275907516</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4007408618927002</v>
       </c>
       <c r="V234" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.878890335559845</v>
       </c>
       <c r="W234" t="n">
-        <v>0.0004523333336692303</v>
+        <v>0.2286269217729568</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4051048755645752</v>
       </c>
       <c r="V235" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.521939218044281</v>
       </c>
       <c r="W235" t="n">
-        <v>0.001095192390494049</v>
+        <v>0.01365026365965605</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4086101055145264</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.3990360796451569</v>
       </c>
       <c r="W236" t="n">
-        <v>0.006740376353263855</v>
+        <v>9.166196832666174e-05</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4528059959411621</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.8714162707328796</v>
       </c>
       <c r="W237" t="n">
-        <v>0.002812106627970934</v>
+        <v>0.1752345561981201</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.446627140045166</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.530848503112793</v>
       </c>
       <c r="W238" t="n">
-        <v>0.0002200798771809787</v>
+        <v>0.007093238178640604</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4021868705749512</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.5110518932342529</v>
       </c>
       <c r="W239" t="n">
-        <v>0.08070968836545944</v>
+        <v>0.01185159292072058</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.4025900363922119</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.3990351855754852</v>
       </c>
       <c r="W240" t="n">
-        <v>0.03403797745704651</v>
+        <v>1.263696412934223e-05</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4320521354675293</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.889111340045929</v>
       </c>
       <c r="W241" t="n">
-        <v>0.0002079837577184662</v>
+        <v>0.2089031189680099</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>1.019592046737671</v>
       </c>
       <c r="V242" t="n">
-        <v>0.417632520198822</v>
+        <v>0.8758564591407776</v>
       </c>
       <c r="W242" t="n">
-        <v>0.3623552620410919</v>
+        <v>0.0206599198281765</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>1.006960153579712</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.5148893594741821</v>
       </c>
       <c r="W243" t="n">
-        <v>0.294942319393158</v>
+        <v>0.2421336621046066</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.9398589134216309</v>
       </c>
       <c r="V244" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.875774085521698</v>
       </c>
       <c r="W244" t="n">
-        <v>0.06101696938276291</v>
+        <v>0.004106865264475346</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8813791275024414</v>
       </c>
       <c r="V245" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.4009725749492645</v>
       </c>
       <c r="W245" t="n">
-        <v>0.008882695809006691</v>
+        <v>0.230790451169014</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9293780326843262</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.4021399319171906</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1800800710916519</v>
+        <v>0.2779800593852997</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.9588899612426758</v>
       </c>
       <c r="V247" t="n">
-        <v>0.801636278629303</v>
+        <v>0.8746891021728516</v>
       </c>
       <c r="W247" t="n">
-        <v>0.02472872100770473</v>
+        <v>0.00708978483453393</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.9625890254974365</v>
       </c>
       <c r="V248" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.8689078688621521</v>
       </c>
       <c r="W248" t="n">
-        <v>0.06479350477457047</v>
+        <v>0.008776159025728703</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9154870510101318</v>
       </c>
       <c r="V249" t="n">
-        <v>0.975181519985199</v>
+        <v>0.4020800292491913</v>
       </c>
       <c r="W249" t="n">
-        <v>0.003563429694622755</v>
+        <v>0.2635867297649384</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9801919460296631</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.8674373030662537</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2395787835121155</v>
+        <v>0.0127136092633009</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.872157096862793</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.5269179940223694</v>
       </c>
       <c r="W251" t="n">
-        <v>0.04786251485347748</v>
+        <v>0.1191900372505188</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8728799819946289</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.8817476630210876</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1460999399423599</v>
+        <v>7.863576320232823e-05</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8638460636138916</v>
       </c>
       <c r="V253" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.5224516987800598</v>
       </c>
       <c r="W253" t="n">
-        <v>0.004020342137664557</v>
+        <v>0.1165501102805138</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9193229675292969</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.8823161721229553</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1712929904460907</v>
+        <v>0.001369502861052752</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8698580265045166</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.3992222547531128</v>
       </c>
       <c r="W255" t="n">
-        <v>0.08621077239513397</v>
+        <v>0.2214980274438858</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8789539337158203</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.39905846118927</v>
       </c>
       <c r="W256" t="n">
-        <v>0.0808032900094986</v>
+        <v>0.2302996665239334</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8937430381774902</v>
       </c>
       <c r="V257" t="n">
-        <v>0.838257908821106</v>
+        <v>0.40196692943573</v>
       </c>
       <c r="W257" t="n">
-        <v>0.003078599693253636</v>
+        <v>0.2418437451124191</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9181449413299561</v>
       </c>
       <c r="V258" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.863111674785614</v>
       </c>
       <c r="W258" t="n">
-        <v>0.006561419926583767</v>
+        <v>0.003028660314157605</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8657140731811523</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.5288119316101074</v>
       </c>
       <c r="W259" t="n">
-        <v>0.08036326617002487</v>
+        <v>0.1135030537843704</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8653199672698975</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8899992108345032</v>
       </c>
       <c r="W260" t="n">
-        <v>0.07741067558526993</v>
+        <v>0.0006090650567784905</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8628759384155273</v>
       </c>
       <c r="V261" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.5325844287872314</v>
       </c>
       <c r="W261" t="n">
-        <v>0.04387027770280838</v>
+        <v>0.1090924814343452</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5724320411682129</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.8642746806144714</v>
       </c>
       <c r="W262" t="n">
-        <v>0.004533570259809494</v>
+        <v>0.08517212420701981</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5396618843078613</v>
       </c>
       <c r="V263" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.5181007981300354</v>
       </c>
       <c r="W263" t="n">
-        <v>0.01325213257223368</v>
+        <v>0.0004648804315365851</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5234329700469971</v>
       </c>
       <c r="V264" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.4004561603069305</v>
       </c>
       <c r="W264" t="n">
-        <v>0.07672527432441711</v>
+        <v>0.01512329559773207</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5247159004211426</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.4010082185268402</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0114609282463789</v>
+        <v>0.01530359033495188</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5186638832092285</v>
       </c>
       <c r="V266" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.4003947377204895</v>
       </c>
       <c r="W266" t="n">
-        <v>0.02794563584029675</v>
+        <v>0.01398759055882692</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.532249927520752</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.5259617567062378</v>
       </c>
       <c r="W267" t="n">
-        <v>4.202411946607754e-05</v>
+        <v>3.954109342885204e-05</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5227878093719482</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.399020791053772</v>
       </c>
       <c r="W268" t="n">
-        <v>0.01683664321899414</v>
+        <v>0.01531827449798584</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5436849594116211</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.5652474164962769</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01222596503794193</v>
+        <v>0.0004649395414162427</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5191640853881836</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.5179154276847839</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01032641623169184</v>
+        <v>1.559146085128305e-06</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5202240943908691</v>
       </c>
       <c r="V271" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5161363482475281</v>
       </c>
       <c r="W271" t="n">
-        <v>0.02183198742568493</v>
+        <v>1.670966776146088e-05</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5512290000915527</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.4010147154331207</v>
       </c>
       <c r="W272" t="n">
-        <v>0.00763977412134409</v>
+        <v>0.02256433106958866</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5764110088348389</v>
       </c>
       <c r="V273" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.515859067440033</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01617403514683247</v>
+        <v>0.003666537581011653</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5385720729827881</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.8672066926956177</v>
       </c>
       <c r="W274" t="n">
-        <v>0.0001963021495612338</v>
+        <v>0.108000710606575</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5187561511993408</v>
       </c>
       <c r="V275" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.5159600973129272</v>
       </c>
       <c r="W275" t="n">
-        <v>0.08168776333332062</v>
+        <v>7.817917321517598e-06</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5212678909301758</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.4004194736480713</v>
       </c>
       <c r="W276" t="n">
-        <v>0.03166744112968445</v>
+        <v>0.01460434030741453</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5240488052368164</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.401005744934082</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01641188003122807</v>
+        <v>0.01513959467411041</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5232081413269043</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.5193740725517273</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01114041078835726</v>
+        <v>1.470008373871678e-05</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5257589817047119</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.8660764694213867</v>
       </c>
       <c r="W279" t="n">
-        <v>0.002547142095863819</v>
+        <v>0.1158159896731377</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5247311592102051</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.8634300827980042</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0114875715225935</v>
+        <v>0.114716961979866</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5191700458526611</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.4000345766544342</v>
       </c>
       <c r="W281" t="n">
-        <v>0.01032869983464479</v>
+        <v>0.01419326011091471</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.405430793762207</v>
       </c>
       <c r="V282" t="n">
-        <v>0.490907609462738</v>
+        <v>0.8704586625099182</v>
       </c>
       <c r="W282" t="n">
-        <v>0.007306286133825779</v>
+        <v>0.2162509113550186</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3967528343200684</v>
       </c>
       <c r="V283" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.5096505284309387</v>
       </c>
       <c r="W283" t="n">
-        <v>0.1909447610378265</v>
+        <v>0.01274588890373707</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4376189708709717</v>
       </c>
       <c r="V284" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.8709267973899841</v>
       </c>
       <c r="W284" t="n">
-        <v>0.1329316347837448</v>
+        <v>0.187755674123764</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3993549346923828</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.5160099864006042</v>
       </c>
       <c r="W285" t="n">
-        <v>0.03121081925928593</v>
+        <v>0.01360840070992708</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4000241756439209</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.5164461731910706</v>
       </c>
       <c r="W286" t="n">
-        <v>0.031041095033288</v>
+        <v>0.01355408132076263</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3987021446228027</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.5156605839729309</v>
       </c>
       <c r="W287" t="n">
-        <v>0.01115040294826031</v>
+        <v>0.01367927622050047</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3976900577545166</v>
       </c>
       <c r="V288" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.4020325243473053</v>
       </c>
       <c r="W288" t="n">
-        <v>0.06585855782032013</v>
+        <v>1.885701567516662e-05</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4138708114624023</v>
       </c>
       <c r="V289" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.8752426505088806</v>
       </c>
       <c r="W289" t="n">
-        <v>0.003982995636761189</v>
+        <v>0.2128639668226242</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3986821174621582</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.8593679070472717</v>
       </c>
       <c r="W290" t="n">
-        <v>0.008396332152187824</v>
+        <v>0.2122313976287842</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3983268737792969</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.4009982049465179</v>
       </c>
       <c r="W291" t="n">
-        <v>0.03379818797111511</v>
+        <v>7.136010026442818e-06</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4204049110412598</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.5278061628341675</v>
       </c>
       <c r="W292" t="n">
-        <v>0.02898483909666538</v>
+        <v>0.01153502892702818</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3996679782867432</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.8656577467918396</v>
       </c>
       <c r="W293" t="n">
-        <v>0.008311123587191105</v>
+        <v>0.2171464711427689</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3924770355224609</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.8682146668434143</v>
       </c>
       <c r="W294" t="n">
-        <v>0.09013795852661133</v>
+        <v>0.2263262867927551</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4005439281463623</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.4004006683826447</v>
       </c>
       <c r="W295" t="n">
-        <v>0.06459042429924011</v>
+        <v>2.052335901225888e-08</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3914310932159424</v>
       </c>
       <c r="V296" t="n">
-        <v>0.708076536655426</v>
+        <v>0.8813046813011169</v>
       </c>
       <c r="W296" t="n">
-        <v>0.1002643331885338</v>
+        <v>0.2399761378765106</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3978681564331055</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.5227526426315308</v>
       </c>
       <c r="W297" t="n">
-        <v>0.004001354798674583</v>
+        <v>0.01559613458812237</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4001598358154297</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.5269274711608887</v>
       </c>
       <c r="W298" t="n">
-        <v>0.06406620889902115</v>
+        <v>0.01607003249228001</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.39882493019104</v>
       </c>
       <c r="V299" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.8681527972221375</v>
       </c>
       <c r="W299" t="n">
-        <v>0.3331974744796753</v>
+        <v>0.220268651843071</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3953099250793457</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.5214275717735291</v>
       </c>
       <c r="W300" t="n">
-        <v>0.004648726899176836</v>
+        <v>0.01590566150844097</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3971028327941895</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.5229331851005554</v>
       </c>
       <c r="W301" t="n">
-        <v>0.011482416652143</v>
+        <v>0.01583327725529671</v>
       </c>
     </row>
     <row r="302" spans="1:23">
